--- a/truss_solver/example/input_data.xlsx
+++ b/truss_solver/example/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batukan/OneDrive - University of Toronto/Documents/Software/github/FEM/truss_solver/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{557F7F0C-76ED-F745-911D-9856E7B1C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E3744B1F-C886-6E40-922F-26E280A08F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15740"/>
   </bookViews>
